--- a/data/case1/14/V2_6.xlsx
+++ b/data/case1/14/V2_6.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.99999999053925204</v>
+        <v>0.99999999469396406</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.99659405935524115</v>
+        <v>0.99657779402019497</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.98198383533346967</v>
+        <v>0.98188161270618246</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.97704257998862254</v>
+        <v>0.97687688546004248</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.9691686910338041</v>
+        <v>0.96893656999218991</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.95287575857744444</v>
+        <v>0.95228515066914998</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.95098063467774108</v>
+        <v>0.95083850857084562</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.94597816741606378</v>
+        <v>0.9460537851586488</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.94274031492143773</v>
+        <v>0.94341360619552783</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.94042359854107038</v>
+        <v>0.94169865040999279</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.93994951176418806</v>
+        <v>0.9412858468903581</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.93820900752147274</v>
+        <v>0.93939405194076198</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.93225496139749575</v>
+        <v>0.93271768612562322</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.93058835839537202</v>
+        <v>0.93072979379155329</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.93024051999861102</v>
+        <v>0.93008121001985078</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.9303372947391817</v>
+        <v>0.92982170519678653</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.93259581022373328</v>
+        <v>0.93131242209108778</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.93148692714338022</v>
+        <v>0.93020351144006752</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.9955409118979277</v>
+        <v>0.99552456781063225</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.98842404781531557</v>
+        <v>0.98840750630039453</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.98702558870285761</v>
+        <v>0.98700901214160564</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.98576109023740721</v>
+        <v>0.98574450544697156</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.97494892876592421</v>
+        <v>0.97484661044627208</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.96192793022523437</v>
+        <v>0.96182552759954343</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.95547092483303164</v>
+        <v>0.955368495891883</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.95113315447137525</v>
+        <v>0.95041881408680151</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.94992667388282559</v>
+        <v>0.94912978796639447</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.94406769229358189</v>
+        <v>0.94301172092864616</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.94046930523146643</v>
+        <v>0.93921468087836424</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.94023361329164112</v>
+        <v>0.93883060075476887</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.93258128030462917</v>
+        <v>0.93117793684244632</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.93090204853257141</v>
+        <v>0.92949864347994526</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.93038205214394365</v>
+        <v>0.92897863142797488</v>
       </c>
     </row>
   </sheetData>
